--- a/Figures/S3 - groupwise Evaluation results.xlsx
+++ b/Figures/S3 - groupwise Evaluation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferd2/Documents/research/trends/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3F2E3-7BBF-CF4A-A09F-BA8A0438FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BD1CC4-C753-EB49-A97F-170B4669AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="2680" windowWidth="28100" windowHeight="17440" xr2:uid="{804BCAD5-BBF1-7D4A-95AD-125EBCF5F3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Target</t>
   </si>
@@ -68,6 +68,9 @@
     <t>RMSE (Root mean square error)</t>
   </si>
   <si>
+    <t>Linear model</t>
+  </si>
+  <si>
     <t>Boosting Tree (Catboost)</t>
   </si>
   <si>
@@ -77,17 +80,17 @@
     <t>Topic-Level split Ŷ - popularity</t>
   </si>
   <si>
-    <t>Linear Model</t>
-  </si>
-  <si>
     <t>Linear + embedding augmented</t>
+  </si>
+  <si>
+    <t>Lag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -108,13 +111,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,35 +139,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,16 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C66735-5D4F-9C49-A958-352BBC363AA8}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -536,7 +499,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>0.97699999999999998</v>
@@ -551,82 +514,83 @@
         <v>209.82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>268.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>187.34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>394.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.86</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>134.44999999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>33.69</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>507.23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>268.27999999999997</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>187.34</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>394.51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.748</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>198.61</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="2">
         <v>58.37</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>697.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
